--- a/Datos.xlsx
+++ b/Datos.xlsx
@@ -8,24 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\9_Didactico\Curso Front end 2022-2023\Locali7\Web Ludo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193E26C2-8B38-4CA4-BD16-8911114C5084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BD1807-2381-4963-9D17-93C666B6E8AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6450" yWindow="4185" windowWidth="17625" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Líder</t>
   </si>
@@ -39,20 +51,88 @@
     <t>Ely</t>
   </si>
   <si>
-    <t>Lider</t>
+    <t>POSICIÓN</t>
+  </si>
+  <si>
+    <t>JUGADORES</t>
+  </si>
+  <si>
+    <t>PUNTOS</t>
+  </si>
+  <si>
+    <t>Andrés</t>
+  </si>
+  <si>
+    <t>Claudia</t>
+  </si>
+  <si>
+    <t>Tatiana</t>
+  </si>
+  <si>
+    <t>Cris</t>
+  </si>
+  <si>
+    <t>Chalo</t>
+  </si>
+  <si>
+    <t>Yeni</t>
+  </si>
+  <si>
+    <t>Erik</t>
+  </si>
+  <si>
+    <t>GANADOR DE ABRIL 2024</t>
+  </si>
+  <si>
+    <t>GANADOR DE MAYO 2024</t>
+  </si>
+  <si>
+    <t>GANADOR DE JUNIO 2024</t>
+  </si>
+  <si>
+    <t>GANADOR DE JULIO 2024</t>
+  </si>
+  <si>
+    <t>GANADOR DE AGOS 2024</t>
+  </si>
+  <si>
+    <t>GANADOR DE SEPT 2024</t>
+  </si>
+  <si>
+    <t>GANADOR DE OCT 2024</t>
+  </si>
+  <si>
+    <t>GANADOR DE NOV 2024</t>
+  </si>
+  <si>
+    <t>GANADOR DE DIC 2024</t>
+  </si>
+  <si>
+    <t>GANADOR ENERO 2024</t>
+  </si>
+  <si>
+    <t>GANADOR DE FeB 2024</t>
+  </si>
+  <si>
+    <t>GANADOR DE MAR 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ADLaM Display"/>
     </font>
   </fonts>
   <fills count="2">
@@ -63,7 +143,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -71,18 +151,200 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="ADLaM Display"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="ADLaM Display"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="ADLaM Display"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="ADLaM Display"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="ADLaM Display"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -93,6 +355,95 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectángulo: esquinas redondeadas 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FB82C75-56DA-2717-0ECF-2264307F1AA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="638174" y="457200"/>
+          <a:ext cx="3086101" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1600">
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>TORNEO MENSUAL ABRIL</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EE845D5D-A90C-4978-A556-F6D2181A9557}" name="Tabla1" displayName="Tabla1" ref="B6:D17" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="B6:D17" xr:uid="{EE845D5D-A90C-4978-A556-F6D2181A9557}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:D17">
+    <sortCondition descending="1" ref="D6:D17"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{8503E4E6-6871-4A1C-AF7C-76E18BAD0B37}" name="POSICIÓN" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{A743CF88-F72F-4B9C-82CA-6217DB57CAD4}" name="JUGADORES" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{C73A6390-D381-4861-B012-C92B83601DFF}" name="PUNTOS" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -358,74 +709,405 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A2:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>45389</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="10">
+        <v>1</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="D7" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="10">
+        <v>2</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="10">
+        <v>3</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="10">
         <v>4</v>
       </c>
-      <c r="I2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5">
+      <c r="C10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="10">
+        <v>5</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="10">
+        <v>5</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="10">
+        <v>6</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="10">
+        <v>7</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="10">
         <v>0</v>
       </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="10">
+        <v>7</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="10">
+        <v>7</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="10">
+        <v>7</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B4:D4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0921A3F8-858E-461F-BD56-CFD8590DE9CC}">
+  <dimension ref="B2:L18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="E3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="H3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="K3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="H4" s="6">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="K4" s="6">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="7">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="E5" s="7">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="H5" s="7">
+        <v>2</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="K5" s="7">
+        <v>2</v>
+      </c>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="8">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="E6" s="8">
+        <v>3</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="H6" s="8">
+        <v>3</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="K6" s="8">
+        <v>3</v>
+      </c>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="8" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="E9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="H9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="K9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="6">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="H10" s="6">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="K10" s="6">
+        <v>1</v>
+      </c>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="7">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="E11" s="7">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="H11" s="7">
+        <v>2</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="K11" s="7">
+        <v>2</v>
+      </c>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="8">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="E12" s="8">
+        <v>3</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="H12" s="8">
+        <v>3</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="K12" s="8">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="14" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="E15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="H15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="K15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="6">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="E16" s="6">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="H16" s="6">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="K16" s="6">
+        <v>1</v>
+      </c>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="7">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="E17" s="7">
+        <v>2</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="H17" s="7">
+        <v>2</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="K17" s="7">
+        <v>2</v>
+      </c>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="8">
+        <v>3</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="E18" s="8">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="H18" s="8">
+        <v>3</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="K18" s="8">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
